--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3e</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3e</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H2">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I2">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J2">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N2">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O2">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P2">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q2">
-        <v>12.76968494827667</v>
+        <v>11.87067720339325</v>
       </c>
       <c r="R2">
-        <v>76.61810968966</v>
+        <v>47.482708813573</v>
       </c>
       <c r="S2">
-        <v>0.009849978166904819</v>
+        <v>0.00934081948722891</v>
       </c>
       <c r="T2">
-        <v>0.01173870870079011</v>
+        <v>0.007832717940259139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H3">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I3">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J3">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P3">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q3">
-        <v>1.30972018836</v>
+        <v>2.090877130287</v>
       </c>
       <c r="R3">
-        <v>11.78748169524</v>
+        <v>12.545262781722</v>
       </c>
       <c r="S3">
-        <v>0.001010261044994809</v>
+        <v>0.001645273096837579</v>
       </c>
       <c r="T3">
-        <v>0.001805967472922288</v>
+        <v>0.002069458700038832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H4">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I4">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J4">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N4">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O4">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P4">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q4">
-        <v>2.443265457131111</v>
+        <v>3.045170572632833</v>
       </c>
       <c r="R4">
-        <v>21.98938911418</v>
+        <v>18.271023435797</v>
       </c>
       <c r="S4">
-        <v>0.001884628438851344</v>
+        <v>0.002396189209715341</v>
       </c>
       <c r="T4">
-        <v>0.00336900811525137</v>
+        <v>0.00301397659544549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H5">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I5">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J5">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N5">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O5">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P5">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q5">
-        <v>2.644824170156666</v>
+        <v>4.499749330395</v>
       </c>
       <c r="R5">
-        <v>15.86894502094</v>
+        <v>17.99899732158</v>
       </c>
       <c r="S5">
-        <v>0.00204010204142594</v>
+        <v>0.003540770717022289</v>
       </c>
       <c r="T5">
-        <v>0.002431291032161916</v>
+        <v>0.002969103337826342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H6">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I6">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J6">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N6">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O6">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P6">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q6">
-        <v>7.391709263913333</v>
+        <v>1.010080110812667</v>
       </c>
       <c r="R6">
-        <v>66.52538337522</v>
+        <v>6.060480664876</v>
       </c>
       <c r="S6">
-        <v>0.005701642222228847</v>
+        <v>0.0007948136252954712</v>
       </c>
       <c r="T6">
-        <v>0.01019239576404588</v>
+        <v>0.0009997330989844138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07792666666666666</v>
+        <v>0.1244045</v>
       </c>
       <c r="H7">
-        <v>0.23378</v>
+        <v>0.248809</v>
       </c>
       <c r="I7">
-        <v>0.02262292700786823</v>
+        <v>0.02044382138936323</v>
       </c>
       <c r="J7">
-        <v>0.03335630044983492</v>
+        <v>0.0203137528521298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N7">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O7">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P7">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q7">
-        <v>2.769556463122222</v>
+        <v>3.464250104247166</v>
       </c>
       <c r="R7">
-        <v>24.92600816809999</v>
+        <v>20.785500625483</v>
       </c>
       <c r="S7">
-        <v>0.002136315093462474</v>
+        <v>0.002725955253263636</v>
       </c>
       <c r="T7">
-        <v>0.00381892936466336</v>
+        <v>0.003428763179575586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H8">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I8">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J8">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N8">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O8">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P8">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q8">
-        <v>544.8927203403722</v>
+        <v>7.435762416443332</v>
       </c>
       <c r="R8">
-        <v>2179.570881361489</v>
+        <v>44.61457449865999</v>
       </c>
       <c r="S8">
-        <v>0.4203064852733402</v>
+        <v>0.005851065890500677</v>
       </c>
       <c r="T8">
-        <v>0.3339334234772925</v>
+        <v>0.00735959229800281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H9">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I9">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J9">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P9">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q9">
-        <v>55.88681312114099</v>
+        <v>1.30972018836</v>
       </c>
       <c r="R9">
-        <v>335.3208787268459</v>
+        <v>11.78748169524</v>
       </c>
       <c r="S9">
-        <v>0.04310865078432646</v>
+        <v>0.001030594939836553</v>
       </c>
       <c r="T9">
-        <v>0.05137472240715731</v>
+        <v>0.001944455606087714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H10">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I10">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J10">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N10">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O10">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P10">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q10">
-        <v>104.2561008233412</v>
+        <v>1.907487206304444</v>
       </c>
       <c r="R10">
-        <v>625.5366049400469</v>
+        <v>17.16738485674</v>
       </c>
       <c r="S10">
-        <v>0.08041861025045305</v>
+        <v>0.00150096690887991</v>
       </c>
       <c r="T10">
-        <v>0.09583885607221408</v>
+        <v>0.002831921065890891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H11">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I11">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J11">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N11">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O11">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P11">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q11">
-        <v>112.8567731103752</v>
+        <v>2.8186316906</v>
       </c>
       <c r="R11">
-        <v>451.427092441501</v>
+        <v>16.9117901436</v>
       </c>
       <c r="S11">
-        <v>0.08705279383377021</v>
+        <v>0.002217929893279505</v>
       </c>
       <c r="T11">
-        <v>0.06916342832366405</v>
+        <v>0.002789758321913766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H12">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I12">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J12">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N12">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O12">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P12">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q12">
-        <v>315.4101753561605</v>
+        <v>0.6327116471022222</v>
       </c>
       <c r="R12">
-        <v>1892.461052136963</v>
+        <v>5.694404823919999</v>
       </c>
       <c r="S12">
-        <v>0.2432936563009785</v>
+        <v>0.0004978692606820901</v>
       </c>
       <c r="T12">
-        <v>0.289945146240336</v>
+        <v>0.0009393454572807907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.3251935</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H13">
-        <v>6.650386999999999</v>
+        <v>0.23378</v>
       </c>
       <c r="I13">
-        <v>0.9653384785380004</v>
+        <v>0.01280595842434782</v>
       </c>
       <c r="J13">
-        <v>0.948893433483088</v>
+        <v>0.01908672572845397</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N13">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O13">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P13">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q13">
-        <v>118.1792003044358</v>
+        <v>2.169997573428888</v>
       </c>
       <c r="R13">
-        <v>709.0752018266148</v>
+        <v>19.52997816086</v>
       </c>
       <c r="S13">
-        <v>0.09115828209513191</v>
+        <v>0.001707531531169083</v>
       </c>
       <c r="T13">
-        <v>0.1086378569624239</v>
+        <v>0.003221652979278002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H14">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I14">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J14">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>163.8679735</v>
+        <v>95.41999849999999</v>
       </c>
       <c r="N14">
-        <v>327.735947</v>
+        <v>190.839997</v>
       </c>
       <c r="O14">
-        <v>0.4353980439170849</v>
+        <v>0.4569018340225213</v>
       </c>
       <c r="P14">
-        <v>0.3519187842322066</v>
+        <v>0.3855869467978643</v>
       </c>
       <c r="Q14">
-        <v>6.795277125098</v>
+        <v>561.3422061157144</v>
       </c>
       <c r="R14">
-        <v>40.771662750588</v>
+        <v>2245.368824462857</v>
       </c>
       <c r="S14">
-        <v>0.005241580476839881</v>
+        <v>0.4417099486447917</v>
       </c>
       <c r="T14">
-        <v>0.006246652054123934</v>
+        <v>0.3703946365596024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H15">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I15">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J15">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>50.42125799999999</v>
       </c>
       <c r="O15">
-        <v>0.04465651348490144</v>
+        <v>0.08047776712105316</v>
       </c>
       <c r="P15">
-        <v>0.05414171981207304</v>
+        <v>0.1018747601737145</v>
       </c>
       <c r="Q15">
-        <v>0.6969562422479999</v>
+        <v>98.87368352470199</v>
       </c>
       <c r="R15">
-        <v>6.272606180231999</v>
+        <v>593.2421011482119</v>
       </c>
       <c r="S15">
-        <v>0.0005376016555801789</v>
+        <v>0.07780189908437903</v>
       </c>
       <c r="T15">
-        <v>0.0009610299319934312</v>
+        <v>0.09786084586758793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H16">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I16">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J16">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.35339366666667</v>
+        <v>24.47797766666666</v>
       </c>
       <c r="N16">
-        <v>94.060181</v>
+        <v>73.433933</v>
       </c>
       <c r="O16">
-        <v>0.08330612737228353</v>
+        <v>0.117208478986324</v>
       </c>
       <c r="P16">
-        <v>0.1010006526448602</v>
+        <v>0.1483712348666036</v>
       </c>
       <c r="Q16">
-        <v>1.300162528569333</v>
+        <v>144.0004422621936</v>
       </c>
       <c r="R16">
-        <v>11.701462757124</v>
+        <v>864.0026535731619</v>
       </c>
       <c r="S16">
-        <v>0.001002888682979137</v>
+        <v>0.1133113228677288</v>
       </c>
       <c r="T16">
-        <v>0.001792788457394693</v>
+        <v>0.1425253372052672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H17">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I17">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J17">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.9399115</v>
+        <v>36.17031</v>
       </c>
       <c r="N17">
-        <v>67.879823</v>
+        <v>72.34062</v>
       </c>
       <c r="O17">
-        <v>0.0901785184877445</v>
+        <v>0.1731951502405771</v>
       </c>
       <c r="P17">
-        <v>0.07288850979797275</v>
+        <v>0.1461622261252945</v>
       </c>
       <c r="Q17">
-        <v>1.407420250082</v>
+        <v>212.78476137567</v>
       </c>
       <c r="R17">
-        <v>8.444521500492</v>
+        <v>851.13904550268</v>
       </c>
       <c r="S17">
-        <v>0.001085622612548347</v>
+        <v>0.1674364496302753</v>
       </c>
       <c r="T17">
-        <v>0.001293790442146766</v>
+        <v>0.1404033644655544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H18">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I18">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J18">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.85468300000001</v>
+        <v>8.119321333333334</v>
       </c>
       <c r="N18">
-        <v>284.564049</v>
+        <v>24.357964</v>
       </c>
       <c r="O18">
-        <v>0.2520293779954212</v>
+        <v>0.03887793823658658</v>
       </c>
       <c r="P18">
-        <v>0.3055613370365933</v>
+        <v>0.04921459398771786</v>
       </c>
       <c r="Q18">
-        <v>3.933433994644</v>
+        <v>47.76480634104933</v>
       </c>
       <c r="R18">
-        <v>35.400905951796</v>
+        <v>286.588838046296</v>
       </c>
       <c r="S18">
-        <v>0.003034079472213866</v>
+        <v>0.03758525535060902</v>
       </c>
       <c r="T18">
-        <v>0.005423795032211323</v>
+        <v>0.04727551543145266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.041468</v>
+        <v>5.882857</v>
       </c>
       <c r="H19">
-        <v>0.124404</v>
+        <v>11.765714</v>
       </c>
       <c r="I19">
-        <v>0.01203859445413141</v>
+        <v>0.966750220186289</v>
       </c>
       <c r="J19">
-        <v>0.01775026606707701</v>
+        <v>0.9605995214194162</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.54054833333333</v>
+        <v>27.84666233333333</v>
       </c>
       <c r="N19">
-        <v>106.621645</v>
+        <v>83.539987</v>
       </c>
       <c r="O19">
-        <v>0.09443141874256437</v>
+        <v>0.1333388313929376</v>
       </c>
       <c r="P19">
-        <v>0.1144889964762942</v>
+        <v>0.1687902380488052</v>
       </c>
       <c r="Q19">
-        <v>1.473795458286666</v>
+        <v>163.8179324342863</v>
       </c>
       <c r="R19">
-        <v>13.26415912458</v>
+        <v>982.9075946057179</v>
       </c>
       <c r="S19">
-        <v>0.001136821553969996</v>
+        <v>0.1289053446085049</v>
       </c>
       <c r="T19">
-        <v>0.002032210149206863</v>
+        <v>0.1621398218899517</v>
       </c>
     </row>
   </sheetData>
